--- a/test/validation/Scenarios/InhalerValidation.xlsx
+++ b/test/validation/Scenarios/InhalerValidation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402481A1-F132-4D7A-9E41-720E725C867A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="525" windowWidth="28185" windowHeight="12660" tabRatio="643" activeTab="1"/>
+    <workbookView xWindow="15045" yWindow="5955" windowWidth="32670" windowHeight="23535" tabRatio="643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="51" r:id="rId1"/>
@@ -18,7 +24,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$B$1:$J$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">TwoActuations!$B$1:$N$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,9 +42,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Action Occurance Time (s)</t>
-  </si>
-  <si>
     <t>Sampled Scenario Time (s)</t>
   </si>
   <si>
@@ -176,12 +187,15 @@
   </si>
   <si>
     <t>%Inhaler Actuation &amp; Forced Inhale</t>
+  </si>
+  <si>
+    <t>Action Occurrence Time (s)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -952,6 +966,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -999,7 +1016,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1032,9 +1049,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1067,6 +1101,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1242,14 +1293,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,283 +1321,283 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>41</v>
-      </c>
       <c r="K1" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="24">
         <v>12</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="25">
         <v>0</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="26">
         <v>0</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="24">
         <v>12</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="25">
         <v>0</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J4" s="26">
         <v>0</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="24">
         <v>24</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="25">
         <v>0</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5" s="26">
         <v>0</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="24">
         <v>12</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="25">
         <v>0</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" s="26">
         <v>0</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F7" s="24">
         <v>12</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="25">
         <v>0</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="26">
         <v>0</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" s="24">
         <f>SUM(F3:F7)</f>
         <v>72</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="25">
         <f>SUM(H3:H7)</f>
         <v>0</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" s="26">
         <f>SUM(J3:J7)</f>
         <v>0</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1560,14 +1611,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,289 +1643,289 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="6">
         <v>30</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="6">
         <v>33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="6">
         <v>33</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="6">
         <v>38</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="6">
         <v>38</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="6">
         <v>48</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="6">
         <v>48</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="5">
         <v>180</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1888,14 +1939,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,472 +1971,472 @@
   <sheetData>
     <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>26</v>
-      </c>
       <c r="O1" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="20">
         <v>30</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="20">
         <v>33</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="20">
         <v>33</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="20">
         <v>38</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="20">
         <v>38</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="20">
         <v>48</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="20">
         <v>48</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="20">
         <v>85</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="20">
         <v>85</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="20">
         <v>88</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="20">
         <v>88</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" s="20">
         <v>93</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="20">
         <v>93</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="20">
         <v>103</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="20">
         <v>103</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" s="19">
         <v>235</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2399,14 +2450,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,289 +2482,289 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>26</v>
-      </c>
       <c r="O2" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="20">
         <v>30</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="20">
         <v>33</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="20">
         <v>33</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="20">
         <v>38</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="20">
         <v>38</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H6" s="20">
         <v>48</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J6" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="20">
         <v>48</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" s="19">
         <v>180</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
